--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_EQ组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.1.3.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.3.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -155,14 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,111 +202,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -318,58 +212,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,198 +237,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -652,265 +319,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -958,7 +383,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,64 +432,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="22"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="48"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="53"/>
-    <cellStyle name="常规 3" xfId="54"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1396,15 +782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="48.625" style="11" customWidth="1"/>
@@ -1427,7 +812,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="14.25" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1511,9 +896,7 @@
       <c r="H2" s="17">
         <v>42522</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="I2" s="16"/>
       <c r="J2" s="25" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +921,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1563,9 +946,7 @@
       <c r="H3" s="17">
         <v>42522</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="I3" s="16"/>
       <c r="J3" s="25" t="s">
         <v>31</v>
       </c>
@@ -1590,7 +971,7 @@
       <c r="S3" s="29"/>
       <c r="T3" s="30"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
@@ -1612,7 +993,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -1634,7 +1015,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1656,7 +1037,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="18"/>
       <c r="C7" s="16"/>
@@ -1678,7 +1059,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="18"/>
       <c r="C8" s="16"/>
@@ -1700,7 +1081,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
@@ -1722,7 +1103,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -1744,7 +1125,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -1766,7 +1147,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
@@ -1788,7 +1169,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1810,7 +1191,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1832,7 +1213,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1854,7 +1235,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1876,7 +1257,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1898,7 +1279,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1920,7 +1301,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1942,7 +1323,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1964,7 +1345,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1986,7 +1367,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -2008,7 +1389,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -2030,7 +1411,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -2052,7 +1433,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -2074,7 +1455,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -2096,7 +1477,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2118,7 +1499,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2140,7 +1521,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2162,7 +1543,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2184,7 +1565,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2206,7 +1587,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2228,7 +1609,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2250,7 +1631,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2272,7 +1653,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2294,7 +1675,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2316,7 +1697,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2338,7 +1719,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2360,7 +1741,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2382,7 +1763,7 @@
       <c r="S39" s="29"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2404,7 +1785,7 @@
       <c r="S40" s="29"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2426,7 +1807,7 @@
       <c r="S41" s="29"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2448,7 +1829,7 @@
       <c r="S42" s="29"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2470,7 +1851,7 @@
       <c r="S43" s="29"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2492,7 +1873,7 @@
       <c r="S44" s="29"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="19"/>
@@ -2514,7 +1895,7 @@
       <c r="S45" s="20"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="19"/>
@@ -2536,7 +1917,7 @@
       <c r="S46" s="20"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" ht="16.5" spans="1:19">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="22"/>
@@ -2557,7 +1938,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="23"/>
     </row>
-    <row r="48" ht="16.5" spans="1:19">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="22"/>
@@ -2578,7 +1959,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="23"/>
     </row>
-    <row r="49" ht="16.5" spans="1:19">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="22"/>
@@ -2599,7 +1980,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="23"/>
     </row>
-    <row r="50" ht="16.5" spans="1:19">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="22"/>
@@ -2620,7 +2001,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="23"/>
     </row>
-    <row r="51" ht="16.5" spans="1:19">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="22"/>
@@ -2641,7 +2022,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="23"/>
     </row>
-    <row r="52" ht="16.5" spans="1:19">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="22"/>
@@ -2662,7 +2043,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="23"/>
     </row>
-    <row r="53" ht="16.5" spans="1:19">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="22"/>
@@ -2683,7 +2064,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" ht="16.5" spans="1:19">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="22"/>
@@ -2704,7 +2085,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="23"/>
     </row>
-    <row r="55" ht="16.5" spans="1:19">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="22"/>
@@ -2725,7 +2106,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="23"/>
     </row>
-    <row r="56" ht="16.5" spans="1:19">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="22"/>
@@ -2746,7 +2127,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="23"/>
     </row>
-    <row r="57" ht="16.5" spans="1:19">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="22"/>
@@ -2767,7 +2148,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="23"/>
     </row>
-    <row r="58" ht="16.5" spans="1:19">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="22"/>
@@ -2788,7 +2169,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="23"/>
     </row>
-    <row r="59" ht="16.5" spans="1:19">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="22"/>
@@ -2809,7 +2190,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="23"/>
     </row>
-    <row r="60" ht="16.5" spans="1:19">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="22"/>
@@ -2830,7 +2211,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="23"/>
     </row>
-    <row r="61" ht="16.5" spans="1:19">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="22"/>
@@ -2851,7 +2232,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" ht="16.5" spans="1:19">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="22"/>
@@ -2872,7 +2253,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="23"/>
     </row>
-    <row r="63" ht="16.5" spans="1:19">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="22"/>
@@ -2893,7 +2274,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="23"/>
     </row>
-    <row r="64" ht="16.5" spans="1:19">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="22"/>
@@ -2914,7 +2295,7 @@
       <c r="R64" s="22"/>
       <c r="S64" s="23"/>
     </row>
-    <row r="65" ht="16.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="22"/>
@@ -2935,7 +2316,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="23"/>
     </row>
-    <row r="66" ht="16.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="22"/>
@@ -2956,7 +2337,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="23"/>
     </row>
-    <row r="67" ht="16.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="22"/>
@@ -2977,7 +2358,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="23"/>
     </row>
-    <row r="68" ht="16.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="22"/>
@@ -2998,7 +2379,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="23"/>
     </row>
-    <row r="69" ht="16.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="22"/>
@@ -3019,7 +2400,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" ht="16.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="22"/>
@@ -3040,7 +2421,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" ht="16.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="22"/>
@@ -3061,7 +2442,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="23"/>
     </row>
-    <row r="72" ht="16.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="22"/>
@@ -3082,7 +2463,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="23"/>
     </row>
-    <row r="73" ht="16.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="22"/>
@@ -3103,7 +2484,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="23"/>
     </row>
-    <row r="74" ht="16.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="22"/>
@@ -3124,7 +2505,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="23"/>
     </row>
-    <row r="75" ht="16.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="22"/>
@@ -3145,7 +2526,7 @@
       <c r="R75" s="22"/>
       <c r="S75" s="23"/>
     </row>
-    <row r="76" ht="16.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="22"/>
@@ -3166,7 +2547,7 @@
       <c r="R76" s="22"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" ht="16.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="22"/>
@@ -3187,7 +2568,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="23"/>
     </row>
-    <row r="78" ht="16.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
@@ -3208,7 +2589,7 @@
       <c r="R78" s="22"/>
       <c r="S78" s="23"/>
     </row>
-    <row r="79" ht="16.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="22"/>
@@ -3229,7 +2610,7 @@
       <c r="R79" s="22"/>
       <c r="S79" s="23"/>
     </row>
-    <row r="80" ht="16.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="22"/>
@@ -3250,7 +2631,7 @@
       <c r="R80" s="22"/>
       <c r="S80" s="23"/>
     </row>
-    <row r="81" ht="16.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="22"/>
@@ -3271,7 +2652,7 @@
       <c r="R81" s="22"/>
       <c r="S81" s="23"/>
     </row>
-    <row r="82" ht="16.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="22"/>
@@ -3292,7 +2673,7 @@
       <c r="R82" s="22"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" ht="16.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="22"/>
@@ -3313,7 +2694,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" ht="16.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="22"/>
@@ -3334,7 +2715,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" ht="16.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="22"/>
@@ -3355,7 +2736,7 @@
       <c r="R85" s="22"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" ht="16.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="22"/>
@@ -3376,7 +2757,7 @@
       <c r="R86" s="22"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" ht="16.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="22"/>
@@ -3397,7 +2778,7 @@
       <c r="R87" s="22"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" ht="16.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="22"/>
@@ -3418,7 +2799,7 @@
       <c r="R88" s="22"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" ht="16.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="22"/>
@@ -3439,7 +2820,7 @@
       <c r="R89" s="22"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" ht="16.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="22"/>
@@ -3460,7 +2841,7 @@
       <c r="R90" s="22"/>
       <c r="S90" s="23"/>
     </row>
-    <row r="91" ht="16.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="22"/>
@@ -3481,7 +2862,7 @@
       <c r="R91" s="22"/>
       <c r="S91" s="23"/>
     </row>
-    <row r="92" ht="16.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="22"/>
@@ -3502,7 +2883,7 @@
       <c r="R92" s="22"/>
       <c r="S92" s="23"/>
     </row>
-    <row r="93" ht="16.5" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="22"/>
@@ -3523,7 +2904,7 @@
       <c r="R93" s="22"/>
       <c r="S93" s="23"/>
     </row>
-    <row r="94" ht="16.5" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="22"/>
@@ -3544,7 +2925,7 @@
       <c r="R94" s="22"/>
       <c r="S94" s="23"/>
     </row>
-    <row r="95" ht="16.5" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="22"/>
@@ -3565,7 +2946,7 @@
       <c r="R95" s="22"/>
       <c r="S95" s="23"/>
     </row>
-    <row r="96" ht="16.5" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="22"/>
@@ -3586,7 +2967,7 @@
       <c r="R96" s="22"/>
       <c r="S96" s="23"/>
     </row>
-    <row r="97" ht="16.5" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="22"/>
       <c r="B97" s="23"/>
       <c r="C97" s="22"/>
@@ -3607,7 +2988,7 @@
       <c r="R97" s="22"/>
       <c r="S97" s="23"/>
     </row>
-    <row r="98" ht="16.5" spans="1:19">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
@@ -3628,7 +3009,7 @@
       <c r="R98" s="22"/>
       <c r="S98" s="23"/>
     </row>
-    <row r="99" ht="16.5" spans="1:19">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="22"/>
@@ -3649,7 +3030,7 @@
       <c r="R99" s="22"/>
       <c r="S99" s="23"/>
     </row>
-    <row r="100" ht="16.5" spans="1:19">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="22"/>
@@ -3670,7 +3051,7 @@
       <c r="R100" s="22"/>
       <c r="S100" s="23"/>
     </row>
-    <row r="101" ht="16.5" spans="1:19">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="22"/>
@@ -3691,7 +3072,7 @@
       <c r="R101" s="22"/>
       <c r="S101" s="23"/>
     </row>
-    <row r="102" ht="16.5" spans="1:19">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="22"/>
@@ -3712,7 +3093,7 @@
       <c r="R102" s="22"/>
       <c r="S102" s="23"/>
     </row>
-    <row r="103" ht="16.5" spans="1:19">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
       <c r="C103" s="22"/>
@@ -3733,7 +3114,7 @@
       <c r="R103" s="22"/>
       <c r="S103" s="23"/>
     </row>
-    <row r="104" ht="16.5" spans="1:19">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
       <c r="C104" s="22"/>
@@ -3754,7 +3135,7 @@
       <c r="R104" s="22"/>
       <c r="S104" s="23"/>
     </row>
-    <row r="105" ht="16.5" spans="1:19">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
       <c r="C105" s="22"/>
@@ -3775,7 +3156,7 @@
       <c r="R105" s="22"/>
       <c r="S105" s="23"/>
     </row>
-    <row r="106" ht="16.5" spans="1:19">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="22"/>
@@ -3796,7 +3177,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="23"/>
     </row>
-    <row r="107" ht="16.5" spans="1:19">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="22"/>
@@ -3817,7 +3198,7 @@
       <c r="R107" s="22"/>
       <c r="S107" s="23"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="22"/>
@@ -3838,7 +3219,7 @@
       <c r="R108" s="22"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="22"/>
@@ -3859,7 +3240,7 @@
       <c r="R109" s="22"/>
       <c r="S109" s="23"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="22"/>
@@ -3880,7 +3261,7 @@
       <c r="R110" s="22"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="22"/>
@@ -3901,7 +3282,7 @@
       <c r="R111" s="22"/>
       <c r="S111" s="23"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="22"/>
@@ -3922,7 +3303,7 @@
       <c r="R112" s="22"/>
       <c r="S112" s="23"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="22"/>
@@ -3943,7 +3324,7 @@
       <c r="R113" s="22"/>
       <c r="S113" s="23"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="22"/>
@@ -3964,7 +3345,7 @@
       <c r="R114" s="22"/>
       <c r="S114" s="23"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="22"/>
@@ -3985,7 +3366,7 @@
       <c r="R115" s="22"/>
       <c r="S115" s="23"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="22"/>
@@ -4006,7 +3387,7 @@
       <c r="R116" s="22"/>
       <c r="S116" s="23"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="22"/>
@@ -4027,7 +3408,7 @@
       <c r="R117" s="22"/>
       <c r="S117" s="23"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="22"/>
@@ -4048,7 +3429,7 @@
       <c r="R118" s="22"/>
       <c r="S118" s="23"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
       <c r="C119" s="22"/>
@@ -4069,7 +3450,7 @@
       <c r="R119" s="22"/>
       <c r="S119" s="23"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="22"/>
@@ -4090,7 +3471,7 @@
       <c r="R120" s="22"/>
       <c r="S120" s="23"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="22"/>
       <c r="B121" s="23"/>
       <c r="C121" s="22"/>
@@ -4111,7 +3492,7 @@
       <c r="R121" s="22"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="22"/>
       <c r="B122" s="23"/>
       <c r="C122" s="22"/>
@@ -4132,7 +3513,7 @@
       <c r="R122" s="22"/>
       <c r="S122" s="23"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="22"/>
       <c r="B123" s="23"/>
       <c r="C123" s="22"/>
@@ -4153,7 +3534,7 @@
       <c r="R123" s="22"/>
       <c r="S123" s="23"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="22"/>
       <c r="B124" s="23"/>
       <c r="C124" s="22"/>
@@ -4174,7 +3555,7 @@
       <c r="R124" s="22"/>
       <c r="S124" s="23"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="22"/>
@@ -4195,7 +3576,7 @@
       <c r="R125" s="22"/>
       <c r="S125" s="23"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="22"/>
@@ -4216,7 +3597,7 @@
       <c r="R126" s="22"/>
       <c r="S126" s="23"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="22"/>
@@ -4237,7 +3618,7 @@
       <c r="R127" s="22"/>
       <c r="S127" s="23"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
       <c r="C128" s="22"/>
@@ -4258,7 +3639,7 @@
       <c r="R128" s="22"/>
       <c r="S128" s="23"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
       <c r="C129" s="22"/>
@@ -4279,7 +3660,7 @@
       <c r="R129" s="22"/>
       <c r="S129" s="23"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="22"/>
@@ -4300,7 +3681,7 @@
       <c r="R130" s="22"/>
       <c r="S130" s="23"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
       <c r="C131" s="22"/>
@@ -4321,7 +3702,7 @@
       <c r="R131" s="22"/>
       <c r="S131" s="23"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
       <c r="C132" s="22"/>
@@ -4342,7 +3723,7 @@
       <c r="R132" s="22"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
       <c r="C133" s="22"/>
@@ -4363,7 +3744,7 @@
       <c r="R133" s="22"/>
       <c r="S133" s="23"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
       <c r="C134" s="22"/>
@@ -4384,7 +3765,7 @@
       <c r="R134" s="22"/>
       <c r="S134" s="23"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
       <c r="C135" s="22"/>
@@ -4405,7 +3786,7 @@
       <c r="R135" s="22"/>
       <c r="S135" s="23"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="22"/>
@@ -4426,7 +3807,7 @@
       <c r="R136" s="22"/>
       <c r="S136" s="23"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
       <c r="C137" s="22"/>
@@ -4447,7 +3828,7 @@
       <c r="R137" s="22"/>
       <c r="S137" s="23"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
       <c r="C138" s="22"/>
@@ -4468,7 +3849,7 @@
       <c r="R138" s="22"/>
       <c r="S138" s="23"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
       <c r="C139" s="22"/>
@@ -4489,7 +3870,7 @@
       <c r="R139" s="22"/>
       <c r="S139" s="23"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
       <c r="C140" s="22"/>
@@ -4510,7 +3891,7 @@
       <c r="R140" s="22"/>
       <c r="S140" s="23"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="22"/>
@@ -4531,7 +3912,7 @@
       <c r="R141" s="22"/>
       <c r="S141" s="23"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="22"/>
@@ -4552,7 +3933,7 @@
       <c r="R142" s="22"/>
       <c r="S142" s="23"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="22"/>
@@ -4573,7 +3954,7 @@
       <c r="R143" s="22"/>
       <c r="S143" s="23"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="22"/>
@@ -4594,7 +3975,7 @@
       <c r="R144" s="22"/>
       <c r="S144" s="23"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
       <c r="C145" s="22"/>
@@ -4615,7 +3996,7 @@
       <c r="R145" s="22"/>
       <c r="S145" s="23"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
       <c r="C146" s="22"/>
@@ -4636,7 +4017,7 @@
       <c r="R146" s="22"/>
       <c r="S146" s="23"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
       <c r="C147" s="22"/>
@@ -4657,7 +4038,7 @@
       <c r="R147" s="22"/>
       <c r="S147" s="23"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="22"/>
       <c r="B148" s="23"/>
       <c r="C148" s="22"/>
@@ -4678,7 +4059,7 @@
       <c r="R148" s="22"/>
       <c r="S148" s="23"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="22"/>
       <c r="B149" s="23"/>
       <c r="C149" s="22"/>
@@ -4699,7 +4080,7 @@
       <c r="R149" s="22"/>
       <c r="S149" s="23"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="22"/>
       <c r="B150" s="23"/>
       <c r="C150" s="22"/>
@@ -4720,7 +4101,7 @@
       <c r="R150" s="22"/>
       <c r="S150" s="23"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="22"/>
       <c r="B151" s="23"/>
       <c r="C151" s="22"/>
@@ -4741,7 +4122,7 @@
       <c r="R151" s="22"/>
       <c r="S151" s="23"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="22"/>
       <c r="B152" s="23"/>
       <c r="C152" s="22"/>
@@ -4762,7 +4143,7 @@
       <c r="R152" s="22"/>
       <c r="S152" s="23"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="22"/>
       <c r="B153" s="23"/>
       <c r="C153" s="22"/>
@@ -4783,7 +4164,7 @@
       <c r="R153" s="22"/>
       <c r="S153" s="23"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="22"/>
       <c r="B154" s="23"/>
       <c r="C154" s="22"/>
@@ -4804,7 +4185,7 @@
       <c r="R154" s="22"/>
       <c r="S154" s="23"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="22"/>
       <c r="B155" s="23"/>
       <c r="C155" s="22"/>
@@ -4825,7 +4206,7 @@
       <c r="R155" s="22"/>
       <c r="S155" s="23"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="22"/>
       <c r="B156" s="23"/>
       <c r="C156" s="22"/>
@@ -4846,7 +4227,7 @@
       <c r="R156" s="22"/>
       <c r="S156" s="23"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="22"/>
       <c r="B157" s="23"/>
       <c r="C157" s="22"/>
@@ -4867,7 +4248,7 @@
       <c r="R157" s="22"/>
       <c r="S157" s="23"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="22"/>
       <c r="B158" s="23"/>
       <c r="C158" s="22"/>
@@ -4888,7 +4269,7 @@
       <c r="R158" s="22"/>
       <c r="S158" s="23"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="22"/>
       <c r="B159" s="23"/>
       <c r="C159" s="22"/>
@@ -4909,7 +4290,7 @@
       <c r="R159" s="22"/>
       <c r="S159" s="23"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="22"/>
       <c r="B160" s="23"/>
       <c r="C160" s="22"/>
@@ -4930,7 +4311,7 @@
       <c r="R160" s="22"/>
       <c r="S160" s="23"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="22"/>
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
@@ -4951,7 +4332,7 @@
       <c r="R161" s="22"/>
       <c r="S161" s="23"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="22"/>
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
@@ -4972,7 +4353,7 @@
       <c r="R162" s="22"/>
       <c r="S162" s="23"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="22"/>
       <c r="B163" s="23"/>
       <c r="C163" s="22"/>
@@ -4993,7 +4374,7 @@
       <c r="R163" s="22"/>
       <c r="S163" s="23"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="22"/>
       <c r="B164" s="23"/>
       <c r="C164" s="22"/>
@@ -5014,7 +4395,7 @@
       <c r="R164" s="22"/>
       <c r="S164" s="23"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="22"/>
       <c r="B165" s="23"/>
       <c r="C165" s="22"/>
@@ -5035,7 +4416,7 @@
       <c r="R165" s="22"/>
       <c r="S165" s="23"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="22"/>
       <c r="B166" s="23"/>
       <c r="C166" s="22"/>
@@ -5056,7 +4437,7 @@
       <c r="R166" s="22"/>
       <c r="S166" s="23"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="22"/>
@@ -5077,7 +4458,7 @@
       <c r="R167" s="22"/>
       <c r="S167" s="23"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="22"/>
       <c r="B168" s="23"/>
       <c r="C168" s="22"/>
@@ -5095,7 +4476,7 @@
       <c r="O168" s="23"/>
       <c r="S168" s="23"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="22"/>
       <c r="B169" s="23"/>
       <c r="C169" s="22"/>
@@ -5113,7 +4494,7 @@
       <c r="O169" s="23"/>
       <c r="S169" s="23"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="22"/>
       <c r="B170" s="23"/>
       <c r="C170" s="22"/>
@@ -5131,7 +4512,7 @@
       <c r="O170" s="23"/>
       <c r="S170" s="23"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="22"/>
       <c r="B171" s="23"/>
       <c r="C171" s="22"/>
@@ -5149,7 +4530,7 @@
       <c r="O171" s="23"/>
       <c r="S171" s="23"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="22"/>
       <c r="B172" s="23"/>
       <c r="C172" s="22"/>
@@ -5167,7 +4548,7 @@
       <c r="O172" s="23"/>
       <c r="S172" s="23"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="22"/>
       <c r="B173" s="23"/>
       <c r="C173" s="22"/>
@@ -5185,7 +4566,7 @@
       <c r="O173" s="23"/>
       <c r="S173" s="23"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="22"/>
       <c r="B174" s="23"/>
       <c r="C174" s="22"/>
@@ -5203,7 +4584,7 @@
       <c r="O174" s="23"/>
       <c r="S174" s="23"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="22"/>
       <c r="B175" s="23"/>
       <c r="C175" s="22"/>
@@ -5221,7 +4602,7 @@
       <c r="O175" s="23"/>
       <c r="S175" s="23"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="22"/>
       <c r="B176" s="23"/>
       <c r="C176" s="22"/>
@@ -5239,7 +4620,7 @@
       <c r="O176" s="23"/>
       <c r="S176" s="23"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="22"/>
@@ -5257,7 +4638,7 @@
       <c r="O177" s="23"/>
       <c r="S177" s="23"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="22"/>
       <c r="B178" s="23"/>
       <c r="C178" s="22"/>
@@ -5275,7 +4656,7 @@
       <c r="O178" s="23"/>
       <c r="S178" s="23"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="22"/>
       <c r="B179" s="23"/>
       <c r="C179" s="22"/>
@@ -5293,7 +4674,7 @@
       <c r="O179" s="23"/>
       <c r="S179" s="23"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="22"/>
       <c r="B180" s="23"/>
       <c r="C180" s="22"/>
@@ -5311,7 +4692,7 @@
       <c r="O180" s="23"/>
       <c r="S180" s="23"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="22"/>
       <c r="B181" s="23"/>
       <c r="C181" s="22"/>
@@ -5329,7 +4710,7 @@
       <c r="O181" s="23"/>
       <c r="S181" s="23"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="22"/>
       <c r="B182" s="23"/>
       <c r="C182" s="22"/>
@@ -5347,7 +4728,7 @@
       <c r="O182" s="23"/>
       <c r="S182" s="23"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="22"/>
       <c r="B183" s="23"/>
       <c r="C183" s="22"/>
@@ -5365,7 +4746,7 @@
       <c r="O183" s="23"/>
       <c r="S183" s="23"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="22"/>
       <c r="B184" s="23"/>
       <c r="C184" s="22"/>
@@ -5383,7 +4764,7 @@
       <c r="O184" s="23"/>
       <c r="S184" s="23"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="22"/>
       <c r="B185" s="23"/>
       <c r="C185" s="22"/>
@@ -5401,7 +4782,7 @@
       <c r="O185" s="23"/>
       <c r="S185" s="23"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="22"/>
       <c r="B186" s="23"/>
       <c r="C186" s="22"/>
@@ -5419,7 +4800,7 @@
       <c r="O186" s="23"/>
       <c r="S186" s="23"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="22"/>
@@ -5437,7 +4818,7 @@
       <c r="O187" s="23"/>
       <c r="S187" s="23"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="22"/>
       <c r="B188" s="23"/>
       <c r="C188" s="22"/>
@@ -5455,7 +4836,7 @@
       <c r="O188" s="23"/>
       <c r="S188" s="23"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="22"/>
       <c r="B189" s="23"/>
       <c r="C189" s="22"/>
@@ -5473,7 +4854,7 @@
       <c r="O189" s="23"/>
       <c r="S189" s="23"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="22"/>
       <c r="B190" s="23"/>
       <c r="C190" s="22"/>
@@ -5491,7 +4872,7 @@
       <c r="O190" s="23"/>
       <c r="S190" s="23"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="22"/>
       <c r="B191" s="23"/>
       <c r="C191" s="22"/>
@@ -5509,7 +4890,7 @@
       <c r="O191" s="23"/>
       <c r="S191" s="23"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="22"/>
       <c r="B192" s="23"/>
       <c r="C192" s="22"/>
@@ -5527,7 +4908,7 @@
       <c r="O192" s="23"/>
       <c r="S192" s="23"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="22"/>
@@ -5545,7 +4926,7 @@
       <c r="O193" s="23"/>
       <c r="S193" s="23"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="22"/>
@@ -5563,7 +4944,7 @@
       <c r="O194" s="23"/>
       <c r="S194" s="23"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="22"/>
       <c r="B195" s="23"/>
       <c r="C195" s="22"/>
@@ -5581,7 +4962,7 @@
       <c r="O195" s="23"/>
       <c r="S195" s="23"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="22"/>
       <c r="B196" s="23"/>
       <c r="C196" s="22"/>
@@ -5599,7 +4980,7 @@
       <c r="O196" s="23"/>
       <c r="S196" s="23"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="22"/>
       <c r="B197" s="23"/>
       <c r="C197" s="22"/>
@@ -5617,7 +4998,7 @@
       <c r="O197" s="23"/>
       <c r="S197" s="23"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="22"/>
       <c r="B198" s="23"/>
       <c r="C198" s="22"/>
@@ -5635,7 +5016,7 @@
       <c r="O198" s="23"/>
       <c r="S198" s="23"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="22"/>
       <c r="B199" s="23"/>
       <c r="C199" s="22"/>
@@ -5653,7 +5034,7 @@
       <c r="O199" s="23"/>
       <c r="S199" s="23"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="22"/>
       <c r="B200" s="23"/>
       <c r="C200" s="22"/>
@@ -5671,7 +5052,7 @@
       <c r="O200" s="23"/>
       <c r="S200" s="23"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="22"/>
       <c r="B201" s="23"/>
       <c r="C201" s="22"/>
@@ -5689,7 +5070,7 @@
       <c r="O201" s="23"/>
       <c r="S201" s="23"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="22"/>
       <c r="B202" s="23"/>
       <c r="C202" s="22"/>
@@ -5708,22 +5089,21 @@
       <c r="S202" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5734,7 +5114,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -5760,7 +5140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>40</v>
@@ -5784,7 +5164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5794,7 +5174,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5804,7 +5184,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5814,7 +5194,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5824,7 +5204,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5834,7 +5214,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5844,7 +5224,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5854,7 +5234,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5864,7 +5244,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5874,7 +5254,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5884,7 +5264,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5894,7 +5274,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5904,7 +5284,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5914,7 +5294,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5924,7 +5304,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5934,7 +5314,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5944,7 +5324,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5955,12 +5335,12 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>